--- a/PDC/helperFiles/errors.xlsx
+++ b/PDC/helperFiles/errors.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3DDBF5-B590-4519-B73A-A33B65BF89B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D090F-27B9-4A62-BE6F-7E316F21D27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FBDAAE6B-C414-4640-8939-FB30B986FB8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,91 +33,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Exceptions aren't much good to throw in an embedded system like this. Handling them requires precious memory, and there isn't much we can do in flight if we encounter an exception, anyway!</t>
-  </si>
-  <si>
-    <t>This is a list of error messages that you'll see on Serial when uploading to the PDC, what they mean, and how to fix them.</t>
-  </si>
-  <si>
-    <t>:(</t>
-  </si>
-  <si>
-    <t>:)</t>
-  </si>
-  <si>
-    <t>!deviceSPI</t>
-  </si>
-  <si>
-    <t>!accelerometerRange</t>
-  </si>
-  <si>
-    <t>!accelerometerFrequency</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>Fix</t>
-  </si>
-  <si>
-    <t>Not a device on SPI</t>
-  </si>
-  <si>
-    <t>Cause</t>
-  </si>
-  <si>
-    <t>You've provided an invalid measurement range to .setupAccelerometer</t>
-  </si>
-  <si>
-    <t>You've tried to access a device that isn't on the SPI bus</t>
-  </si>
-  <si>
-    <t>You've provided an invalid output update frequency to .setupAccelerometer</t>
-  </si>
-  <si>
-    <t>Check your slave select assignments</t>
-  </si>
-  <si>
-    <t>Range must be: [4, 8, 16, 32]</t>
-  </si>
-  <si>
-    <t>Invalid update frequency for the accelerometer</t>
-  </si>
-  <si>
-    <t>Invalid range for the accelerometer</t>
-  </si>
-  <si>
-    <t>Frequnecy must be: [0, 12.5, 26, 52, 104, 208, 416, 833, 1660, 3330, 6660]</t>
-  </si>
-  <si>
-    <t>Only use readSPI() and writeSPI() with defined slave select pins for IMU, Altimeter, SD module</t>
-  </si>
-  <si>
-    <t>Nothing!</t>
-  </si>
-  <si>
-    <t>Something is sad</t>
-  </si>
-  <si>
-    <t>Something is happy</t>
-  </si>
-  <si>
-    <t>Something couldn't be reached, or failed to communicate with the PDC</t>
-  </si>
-  <si>
-    <t>Something was reached, and it communicated as we expected it to</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>imuErr</t>
+  </si>
+  <si>
+    <t>altErr</t>
+  </si>
+  <si>
+    <t>msdErr</t>
+  </si>
+  <si>
+    <t>logErr</t>
+  </si>
+  <si>
+    <t>UNDEF</t>
+  </si>
+  <si>
+    <t>If high, the altimeter has encountered an error.
+Potential causes:
+- The altimeter is not connected to the PDC</t>
+  </si>
+  <si>
+    <t>If high, the IMU has encountered an error.
+Potential causes:
+- The IMU is not connected to the PDC
+- The SPI is not working as expected
+- Invalid values for the measurement range or ODR update frequency were sent to the IMU</t>
+  </si>
+  <si>
+    <t>If high, the micro-SD card has encountered an error
+Potential causes:
+- No card is inserted
+- Card initialisation failed</t>
+  </si>
+  <si>
+    <t>If high, the log file on the micro-SD card has encountered an error
+Potential causes:
+- No space on the card</t>
+  </si>
+  <si>
+    <t>rtcErr</t>
+  </si>
+  <si>
+    <t>If high, the real-time clock has encountered an error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +94,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,12 +117,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -172,13 +137,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,154 +465,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B3F467-97FF-4376-AA24-C3DE01F9F800}">
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12803E55-9A14-46ED-B32F-8C3D14D4E93B}">
+  <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="5" spans="2:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
